--- a/plan/excel/world_场景对象表.xlsx
+++ b/plan/excel/world_场景对象表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -240,42 +240,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>美人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>得道高僧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>百晓生</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>江湖记者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息贩子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大智若愚</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南才子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>相士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>边城第一高手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>有哪些任务</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -298,6 +266,93 @@
   <si>
     <t>img_bg</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>openLv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aocao</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunquan</t>
+  </si>
+  <si>
+    <t>我是一个NPC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是怪物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是可采集的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是未定义类型的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_得道高僧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_江湖记者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_消息贩子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz.jpg</t>
   </si>
 </sst>
 </file>
@@ -367,12 +422,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,19 +735,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -697,13 +755,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -711,13 +772,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -725,13 +789,16 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -739,104 +806,152 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2001</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
       <c r="D5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2002</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
       <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2003</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2004</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>2005</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>2006</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>2007</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>2008</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>2009</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -847,20 +962,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -871,19 +987,25 @@
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -894,16 +1016,22 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -914,16 +1042,22 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -937,33 +1071,48 @@
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>2001</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -971,42 +1120,54 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>2002</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
       </c>
       <c r="F6">
         <v>80</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>80</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>2003</v>
-      </c>
-      <c r="E7">
-        <v>140</v>
       </c>
       <c r="F7">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>140</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1014,19 +1175,25 @@
         <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>2004</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
       </c>
       <c r="F8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1034,19 +1201,25 @@
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>2005</v>
-      </c>
-      <c r="E9">
-        <v>260</v>
       </c>
       <c r="F9">
         <v>260</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>260</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1054,19 +1227,25 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>2006</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1074,19 +1253,25 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>2007</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -1094,19 +1279,25 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>2008</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
       </c>
       <c r="F12">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -1114,16 +1305,22 @@
         <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
         <v>2009</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
       </c>
       <c r="F13">
         <v>300</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/world_场景对象表.xlsx
+++ b/plan/excel/world_场景对象表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -353,6 +353,38 @@
   </si>
   <si>
     <t>zzz.jpg</t>
+  </si>
+  <si>
+    <t>默认文本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组文字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我操他妈|我干他爹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组文字|没文本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组文字|不知道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,7 +465,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -449,7 +481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -737,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -962,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,10 +1005,11 @@
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1001,11 +1034,14 @@
       <c r="H1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1030,8 +1066,11 @@
       <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1056,8 +1095,11 @@
       <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1124,11 @@
       <c r="H4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1109,10 +1154,13 @@
         <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1138,10 +1186,13 @@
         <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1166,8 +1217,11 @@
       <c r="H7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1192,8 +1246,11 @@
       <c r="H8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1218,8 +1275,11 @@
       <c r="H9" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I9" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1244,8 +1304,11 @@
       <c r="H10" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1270,8 +1333,11 @@
       <c r="H11" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -1296,8 +1362,9 @@
       <c r="H12" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -1320,11 +1387,15 @@
         <v>300</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plan/excel/world_场景对象表.xlsx
+++ b/plan/excel/world_场景对象表.xlsx
@@ -375,15 +375,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>我操他妈|我干他爹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>数组文字|没文本</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数组文字|不知道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要问我从哪里来|我的故乡在远方</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +997,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,7 +1005,7 @@
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.875" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1154,7 +1154,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>12</v>
@@ -1186,7 +1186,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>47</v>
@@ -1218,7 +1218,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">

--- a/plan/excel/world_场景对象表.xlsx
+++ b/plan/excel/world_场景对象表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="5" r:id="rId1"/>
@@ -14,8 +14,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 装饰物件
+1 小地图入口
+2 NPC
+3 怪物
+4 采集物</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -386,12 +426,168 @@
     <t>不要问我从哪里来|我的故乡在远方</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>巴蜀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青城山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雨楼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西湖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金陵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林寺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>太湖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>波斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西夏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精绝城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉门关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>突厥部落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天池</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天涯海阁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海诸岛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花岛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山海关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇岛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风凌古渡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝天崖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神女峰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#小地图入口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_lv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,13 +629,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -454,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -463,6 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -773,13 +991,13 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -796,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -813,7 +1031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -830,7 +1048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -847,7 +1065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2001</v>
       </c>
@@ -864,7 +1082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2002</v>
       </c>
@@ -881,7 +1099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2003</v>
       </c>
@@ -895,7 +1113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2004</v>
       </c>
@@ -909,7 +1127,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2005</v>
       </c>
@@ -923,7 +1141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2006</v>
       </c>
@@ -940,7 +1158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2007</v>
       </c>
@@ -954,7 +1172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2008</v>
       </c>
@@ -971,7 +1189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2009</v>
       </c>
@@ -993,23 +1211,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.875" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.90625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1026,22 +1244,25 @@
         <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1058,19 +1279,22 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1087,19 +1311,22 @@
         <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1116,19 +1343,22 @@
         <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1145,22 +1375,25 @@
         <v>2001</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1177,22 +1410,25 @@
         <v>2002</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>80</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1209,19 +1445,22 @@
         <v>2003</v>
       </c>
       <c r="F7">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>140</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7">
+        <v>140</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1238,19 +1477,22 @@
         <v>2004</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>200</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -1267,19 +1509,22 @@
         <v>2005</v>
       </c>
       <c r="F9">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>260</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9">
+        <v>260</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -1296,19 +1541,22 @@
         <v>2006</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>61</v>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -1325,19 +1573,22 @@
         <v>2007</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -1354,17 +1605,20 @@
         <v>2008</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>200</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>200</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -1381,15 +1635,933 @@
         <v>2009</v>
       </c>
       <c r="F13">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>300</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>61</v>
+      <c r="H13">
+        <v>300</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2000</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2000</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>90</v>
+      </c>
+      <c r="H18">
+        <v>90</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2000</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2000</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
+      <c r="H20">
+        <v>150</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>180</v>
+      </c>
+      <c r="H21">
+        <v>180</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2000</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>210</v>
+      </c>
+      <c r="H22">
+        <v>210</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2000</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>240</v>
+      </c>
+      <c r="H23">
+        <v>240</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2000</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>270</v>
+      </c>
+      <c r="H24">
+        <v>270</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2000</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>330</v>
+      </c>
+      <c r="H26">
+        <v>330</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2000</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>360</v>
+      </c>
+      <c r="H27">
+        <v>360</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2000</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>390</v>
+      </c>
+      <c r="H28">
+        <v>390</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2000</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>420</v>
+      </c>
+      <c r="H29">
+        <v>420</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2000</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>450</v>
+      </c>
+      <c r="H30">
+        <v>450</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2000</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>480</v>
+      </c>
+      <c r="H31">
+        <v>480</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2000</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>510</v>
+      </c>
+      <c r="H32">
+        <v>510</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2000</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>540</v>
+      </c>
+      <c r="H33">
+        <v>540</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2000</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>570</v>
+      </c>
+      <c r="H34">
+        <v>570</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2000</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>600</v>
+      </c>
+      <c r="H35">
+        <v>600</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2000</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>630</v>
+      </c>
+      <c r="H36">
+        <v>630</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2000</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>660</v>
+      </c>
+      <c r="H37">
+        <v>660</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1123</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2000</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>690</v>
+      </c>
+      <c r="H38">
+        <v>690</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2000</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>720</v>
+      </c>
+      <c r="H39">
+        <v>720</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2000</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>750</v>
+      </c>
+      <c r="H40">
+        <v>750</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2000</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>780</v>
+      </c>
+      <c r="H41">
+        <v>780</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2000</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>810</v>
+      </c>
+      <c r="H42">
+        <v>810</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2000</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>840</v>
+      </c>
+      <c r="H43">
+        <v>840</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2000</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>870</v>
+      </c>
+      <c r="H44">
+        <v>870</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2000</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>900</v>
+      </c>
+      <c r="H45">
+        <v>900</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1131</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2000</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>930</v>
+      </c>
+      <c r="H46">
+        <v>930</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1132</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2000</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>960</v>
+      </c>
+      <c r="H47">
+        <v>960</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2000</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>990</v>
+      </c>
+      <c r="H48">
+        <v>990</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1134</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2000</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>1020</v>
+      </c>
+      <c r="H49">
+        <v>1020</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1397,5 +2569,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/plan/excel/world_场景对象表.xlsx
+++ b/plan/excel/world_场景对象表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
@@ -31,7 +31,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -50,12 +50,192 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+达到等级才可进入地图、与</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NPC</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对话、采集</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+小地图</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>、
+怪物组</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+采集物：采得道具</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">数量
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NPC</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对话框随机文本</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,38 +343,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>巴蜀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>终南山</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟雨楼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>西湖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼兰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精绝城</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴山</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>d</t>
     </r>
@@ -244,10 +392,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>风陵古渡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>枯木老人</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -305,18 +449,6 @@
   </si>
   <si>
     <t>img_bg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>openLv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -395,191 +527,219 @@
     <t>zzz.jpg</t>
   </si>
   <si>
-    <t>默认文本</t>
+    <t>数组文字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组文字|没文本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组文字|不知道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要问我从哪里来|我的故乡在远方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴蜀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青城山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雨楼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西湖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金陵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林寺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>太湖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>波斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西夏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精绝城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉门关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>突厥部落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天池</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天涯海阁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海诸岛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花岛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山海关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇岛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风凌古渡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝天崖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神女峰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#小地图入口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_lv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>param1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>param2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>array_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>def_text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组文字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组文字|没文本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组文字|不知道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要问我从哪里来|我的故乡在远方</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴蜀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨眉山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>青城山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟雨楼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>西湖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬州</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金陵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛阳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林寺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>太湖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>波斯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>西夏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>精绝城</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼兰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>敦煌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉门关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>突厥部落</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天池</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天涯海阁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南海诸岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>山海关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风凌古渡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝天崖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神女峰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#小地图入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_lv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>param3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +804,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -671,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -681,9 +854,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -699,7 +875,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -985,19 +1161,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1005,16 +1181,13 @@
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1022,16 +1195,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1039,16 +1209,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1056,152 +1223,453 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>2001</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="C14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>2027</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>2028</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>2029</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>2031</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <v>2032</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>2033</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>2034</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>2035</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1212,22 +1680,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.90625" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.375" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1238,13 +1708,13 @@
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -1253,16 +1723,22 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>72</v>
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1276,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1288,13 +1764,19 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1305,13 +1787,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
@@ -1320,13 +1802,19 @@
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1337,13 +1825,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -1352,24 +1840,30 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>2001</v>
@@ -1384,27 +1878,27 @@
         <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>2002</v>
@@ -1419,27 +1913,27 @@
         <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>2003</v>
@@ -1454,24 +1948,24 @@
         <v>140</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>2004</v>
@@ -1486,24 +1980,24 @@
         <v>200</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>2005</v>
@@ -1518,24 +2012,21 @@
         <v>260</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>2006</v>
@@ -1550,24 +2041,21 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>2007</v>
@@ -1582,24 +2070,21 @@
         <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>2008</v>
@@ -1614,22 +2099,21 @@
         <v>200</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>2009</v>
@@ -1644,23 +2128,20 @@
         <v>300</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1100</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1678,15 +2159,18 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1101</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1704,15 +2188,18 @@
         <v>30</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1102</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1730,15 +2217,18 @@
         <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1103</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1756,15 +2246,18 @@
         <v>90</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1104</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1782,15 +2275,18 @@
         <v>120</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1105</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1808,15 +2304,18 @@
         <v>150</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1106</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1834,15 +2333,18 @@
         <v>180</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1107</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1860,15 +2362,18 @@
         <v>210</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J22" s="6">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1108</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1886,15 +2391,18 @@
         <v>240</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1109</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1912,15 +2420,18 @@
         <v>270</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1110</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1938,15 +2449,18 @@
         <v>300</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1111</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1964,15 +2478,18 @@
         <v>330</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J26" s="6">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1112</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1990,15 +2507,18 @@
         <v>360</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1113</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2016,15 +2536,18 @@
         <v>390</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J28" s="6">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1114</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2042,15 +2565,18 @@
         <v>420</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1115</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2068,15 +2594,18 @@
         <v>450</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1116</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2094,15 +2623,18 @@
         <v>480</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J31" s="6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1117</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2120,15 +2652,18 @@
         <v>510</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J32" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1118</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2146,15 +2681,18 @@
         <v>540</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J33" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1119</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2172,15 +2710,18 @@
         <v>570</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1120</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2198,15 +2739,18 @@
         <v>600</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1121</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2224,15 +2768,18 @@
         <v>630</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J36" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1122</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2250,15 +2797,18 @@
         <v>660</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J37" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1123</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2276,15 +2826,18 @@
         <v>690</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J38" s="6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1124</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2302,15 +2855,18 @@
         <v>720</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J39" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1125</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2328,15 +2884,18 @@
         <v>750</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J40" s="6">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1126</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2354,15 +2913,18 @@
         <v>780</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J41" s="6">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1127</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2380,15 +2942,18 @@
         <v>810</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J42" s="6">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1128</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2406,15 +2971,18 @@
         <v>840</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1129</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2432,15 +3000,18 @@
         <v>870</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1130</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2458,15 +3029,18 @@
         <v>900</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J45" s="6">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1131</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2484,15 +3058,18 @@
         <v>930</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1132</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2510,15 +3087,18 @@
         <v>960</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J47" s="6">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1133</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2536,15 +3116,18 @@
         <v>990</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J48" s="6">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1134</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2562,7 +3145,10 @@
         <v>1020</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="J49" s="6">
+        <v>2035</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/world_场景对象表.xlsx
+++ b/plan/excel/world_场景对象表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
@@ -31,7 +31,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -543,10 +543,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>巴蜀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>峨眉山</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -740,6 +736,10 @@
   </si>
   <si>
     <t>param3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>京城</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1161,19 +1161,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1229,12 +1229,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>59</v>
@@ -1243,7 +1243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2001</v>
       </c>
@@ -1254,10 +1254,10 @@
         <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2002</v>
       </c>
@@ -1267,11 +1267,9 @@
       <c r="C7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2003</v>
       </c>
@@ -1283,31 +1281,33 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2004</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2005</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2006</v>
       </c>
@@ -1317,11 +1317,9 @@
       <c r="C11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2007</v>
       </c>
@@ -1331,9 +1329,11 @@
       <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -1343,11 +1343,9 @@
       <c r="C13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2009</v>
       </c>
@@ -1359,7 +1357,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2010</v>
       </c>
@@ -1371,7 +1369,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2011</v>
       </c>
@@ -1383,7 +1381,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2012</v>
       </c>
@@ -1395,7 +1393,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2013</v>
       </c>
@@ -1407,7 +1405,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2014</v>
       </c>
@@ -1419,7 +1417,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
@@ -1431,7 +1429,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2016</v>
       </c>
@@ -1443,7 +1441,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2017</v>
       </c>
@@ -1455,7 +1453,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2018</v>
       </c>
@@ -1467,7 +1465,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
@@ -1479,7 +1477,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2020</v>
       </c>
@@ -1491,7 +1489,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2021</v>
       </c>
@@ -1503,7 +1501,7 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2022</v>
       </c>
@@ -1515,11 +1513,11 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2023</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1527,11 +1525,11 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2024</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1539,7 +1537,7 @@
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2025</v>
       </c>
@@ -1551,7 +1549,7 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2026</v>
       </c>
@@ -1563,7 +1561,7 @@
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2027</v>
       </c>
@@ -1575,7 +1573,7 @@
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2028</v>
       </c>
@@ -1587,7 +1585,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2029</v>
       </c>
@@ -1599,7 +1597,7 @@
       </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2030</v>
       </c>
@@ -1611,7 +1609,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2031</v>
       </c>
@@ -1623,7 +1621,7 @@
       </c>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2032</v>
       </c>
@@ -1635,7 +1633,7 @@
       </c>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2033</v>
       </c>
@@ -1647,7 +1645,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2034</v>
       </c>
@@ -1658,18 +1656,6 @@
         <v>59</v>
       </c>
       <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
-        <v>2035</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1680,24 +1666,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.375" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.36328125" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1714,7 +1700,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -1726,19 +1712,19 @@
         <v>44</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1741,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1767,16 +1753,16 @@
         <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1793,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
@@ -1805,16 +1791,16 @@
         <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1846,13 +1832,13 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -1887,7 +1873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -1922,7 +1908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -1954,7 +1940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -1986,7 +1972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -2015,7 +2001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -2044,7 +2030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -2073,7 +2059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -2102,7 +2088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -2131,14 +2117,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -2153,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>-544</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-153</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>49</v>
@@ -2165,9 +2151,9 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -2182,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>-739</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>49</v>
@@ -2194,9 +2180,9 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -2211,10 +2197,10 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>-215</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>-39</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>49</v>
@@ -2223,12 +2209,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2240,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>90</v>
+        <v>-751</v>
       </c>
       <c r="H18">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>49</v>
@@ -2252,12 +2238,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2269,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>120</v>
+        <v>-527</v>
       </c>
       <c r="H19">
-        <v>120</v>
+        <v>-241</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>49</v>
@@ -2281,9 +2267,9 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -2298,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>1168</v>
       </c>
       <c r="H20">
-        <v>150</v>
+        <v>-83</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>49</v>
@@ -2310,9 +2296,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -2324,13 +2310,13 @@
         <v>2000</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>180</v>
+        <v>395</v>
       </c>
       <c r="H21">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>49</v>
@@ -2339,9 +2325,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -2356,10 +2342,10 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>210</v>
+        <v>608</v>
       </c>
       <c r="H22">
-        <v>210</v>
+        <v>-377</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>49</v>
@@ -2368,12 +2354,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2385,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>240</v>
+        <v>1269</v>
       </c>
       <c r="H23">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>49</v>
@@ -2397,9 +2383,9 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -2414,10 +2400,10 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="H24">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>49</v>
@@ -2426,9 +2412,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
@@ -2443,10 +2429,10 @@
         <v>10</v>
       </c>
       <c r="G25">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="H25">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
@@ -2455,9 +2441,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
@@ -2472,10 +2458,10 @@
         <v>10</v>
       </c>
       <c r="G26">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="H26">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>49</v>
@@ -2484,9 +2470,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
@@ -2501,10 +2487,10 @@
         <v>10</v>
       </c>
       <c r="G27">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="H27">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>49</v>
@@ -2513,9 +2499,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
@@ -2530,10 +2516,10 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="H28">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>49</v>
@@ -2542,9 +2528,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -2559,10 +2545,10 @@
         <v>10</v>
       </c>
       <c r="G29">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="H29">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>49</v>
@@ -2571,9 +2557,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B30" t="s">
         <v>78</v>
@@ -2588,10 +2574,10 @@
         <v>10</v>
       </c>
       <c r="G30">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="H30">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>49</v>
@@ -2600,9 +2586,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B31" t="s">
         <v>79</v>
@@ -2617,10 +2603,10 @@
         <v>10</v>
       </c>
       <c r="G31">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H31">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>49</v>
@@ -2629,9 +2615,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B32" t="s">
         <v>80</v>
@@ -2646,10 +2632,10 @@
         <v>10</v>
       </c>
       <c r="G32">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H32">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>49</v>
@@ -2658,9 +2644,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -2675,10 +2661,10 @@
         <v>10</v>
       </c>
       <c r="G33">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H33">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>49</v>
@@ -2687,9 +2673,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -2704,10 +2690,10 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H34">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
@@ -2716,9 +2702,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -2733,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="G35">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="H35">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
@@ -2745,9 +2731,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B36" t="s">
         <v>84</v>
@@ -2762,10 +2748,10 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="H36">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
@@ -2774,11 +2760,11 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1122</v>
-      </c>
-      <c r="B37" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D37">
@@ -2791,10 +2777,10 @@
         <v>10</v>
       </c>
       <c r="G37">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="H37">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
@@ -2803,11 +2789,11 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1123</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B38" t="s">
         <v>86</v>
       </c>
       <c r="D38">
@@ -2820,10 +2806,10 @@
         <v>10</v>
       </c>
       <c r="G38">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="H38">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
@@ -2832,9 +2818,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B39" t="s">
         <v>87</v>
@@ -2849,10 +2835,10 @@
         <v>10</v>
       </c>
       <c r="G39">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="H39">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>49</v>
@@ -2861,9 +2847,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
@@ -2878,10 +2864,10 @@
         <v>10</v>
       </c>
       <c r="G40">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="H40">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
@@ -2890,9 +2876,9 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B41" t="s">
         <v>89</v>
@@ -2907,10 +2893,10 @@
         <v>10</v>
       </c>
       <c r="G41">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="H41">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
@@ -2919,9 +2905,9 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B42" t="s">
         <v>90</v>
@@ -2936,10 +2922,10 @@
         <v>10</v>
       </c>
       <c r="G42">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="H42">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
@@ -2948,9 +2934,9 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B43" t="s">
         <v>91</v>
@@ -2965,10 +2951,10 @@
         <v>10</v>
       </c>
       <c r="G43">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="H43">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
@@ -2977,9 +2963,9 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B44" t="s">
         <v>92</v>
@@ -2994,10 +2980,10 @@
         <v>10</v>
       </c>
       <c r="G44">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="H44">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
@@ -3006,9 +2992,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -3023,10 +3009,10 @@
         <v>10</v>
       </c>
       <c r="G45">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="H45">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>49</v>
@@ -3035,9 +3021,9 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B46" t="s">
         <v>94</v>
@@ -3052,10 +3038,10 @@
         <v>10</v>
       </c>
       <c r="G46">
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="H46">
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
@@ -3064,9 +3050,9 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B47" t="s">
         <v>95</v>
@@ -3081,10 +3067,10 @@
         <v>10</v>
       </c>
       <c r="G47">
-        <v>960</v>
+        <v>990</v>
       </c>
       <c r="H47">
-        <v>960</v>
+        <v>990</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
@@ -3093,9 +3079,9 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B48" t="s">
         <v>96</v>
@@ -3110,45 +3096,16 @@
         <v>10</v>
       </c>
       <c r="G48">
-        <v>990</v>
+        <v>1020</v>
       </c>
       <c r="H48">
-        <v>990</v>
+        <v>1020</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J48" s="6">
         <v>2034</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>1134</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>2000</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="G49">
-        <v>1020</v>
-      </c>
-      <c r="H49">
-        <v>1020</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J49" s="6">
-        <v>2035</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/world_场景对象表.xlsx
+++ b/plan/excel/world_场景对象表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="5" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -412,18 +412,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>算死天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日破天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶倾城</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>百晓生</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -496,14 +484,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>我是可采集的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是未定义类型的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>对象类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -740,6 +720,115 @@
   </si>
   <si>
     <t>京城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NPC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小花</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿叶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是装饰用的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点我没用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#可采集物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#怪物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优昙仙花</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地火之精</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地鼠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来打我啊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unquan</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>此物最相思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼武器材料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄衫女</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是少年郭襄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸金校尉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>算死天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>相士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月满天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>血长空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日破天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日破城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶倾城</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1163,17 +1252,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1181,13 +1270,13 @@
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1195,13 +1284,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1209,13 +1298,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1229,431 +1318,431 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>2001</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>2002</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>2003</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>2004</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>2005</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>2006</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>2007</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>2009</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>2010</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>2011</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>2012</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>2013</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>2014</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>2016</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>2020</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>2021</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>2022</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>2023</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>2024</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>2025</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>2026</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>2027</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>2028</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>2029</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>2030</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>2031</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>2032</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>2033</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>2034</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D39" s="7"/>
     </row>
@@ -1666,24 +1755,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.36328125" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.375" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1694,13 +1783,13 @@
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -1709,22 +1798,22 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1830,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1750,19 +1839,19 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1773,13 +1862,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
@@ -1788,19 +1877,19 @@
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1826,308 +1915,290 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
+        <v>2009</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-544</v>
+      </c>
+      <c r="H8">
+        <v>-153</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-739</v>
+      </c>
+      <c r="H9">
+        <v>67</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="6">
         <v>2002</v>
       </c>
-      <c r="F6">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-215</v>
+      </c>
+      <c r="H10">
+        <v>-39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>-751</v>
+      </c>
+      <c r="H11">
+        <v>315</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>-649</v>
+      </c>
+      <c r="H12">
+        <v>-365</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1168</v>
+      </c>
+      <c r="H13">
+        <v>-83</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>80</v>
-      </c>
-      <c r="H6">
-        <v>80</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2003</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>140</v>
-      </c>
-      <c r="H7">
-        <v>140</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2004</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>200</v>
-      </c>
-      <c r="H8">
-        <v>200</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>2005</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>260</v>
-      </c>
-      <c r="H9">
-        <v>260</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>2006</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
+      <c r="G14">
+        <v>249</v>
+      </c>
+      <c r="H14">
+        <v>121</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="6">
         <v>2007</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1008</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>2008</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
-      </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>2009</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>300</v>
-      </c>
-      <c r="H13">
-        <v>300</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2136,27 +2207,27 @@
         <v>2000</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>-544</v>
+        <v>608</v>
       </c>
       <c r="H15">
-        <v>-153</v>
+        <v>-377</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J15" s="6">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2165,27 +2236,27 @@
         <v>2000</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>-739</v>
+        <v>1269</v>
       </c>
       <c r="H16">
+        <v>53</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1110</v>
+      </c>
+      <c r="B17" t="s">
         <v>67</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1103</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2194,27 +2265,27 @@
         <v>2000</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>-215</v>
+        <v>735</v>
       </c>
       <c r="H17">
-        <v>-39</v>
+        <v>118</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J17" s="6">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2223,27 +2294,27 @@
         <v>2000</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>-751</v>
+        <v>330</v>
       </c>
       <c r="H18">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J18" s="6">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2252,27 +2323,27 @@
         <v>2000</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>-527</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>-241</v>
+        <v>500</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J19" s="6">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2281,27 +2352,27 @@
         <v>2000</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>1168</v>
+        <v>809</v>
       </c>
       <c r="H20">
-        <v>-83</v>
+        <v>295</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J20" s="6">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2313,24 +2384,24 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>395</v>
+        <v>51</v>
       </c>
       <c r="H21">
-        <v>224</v>
+        <v>419</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J21" s="6">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2342,24 +2413,24 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>608</v>
+        <v>-1355</v>
       </c>
       <c r="H22">
-        <v>-377</v>
+        <v>31</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J22" s="6">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2371,24 +2442,24 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>1269</v>
+        <v>-1633</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J23" s="6">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2400,24 +2471,24 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>300</v>
+        <v>-1432</v>
       </c>
       <c r="H24">
-        <v>300</v>
+        <v>-434</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J24" s="6">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2429,24 +2500,24 @@
         <v>10</v>
       </c>
       <c r="G25">
-        <v>330</v>
+        <v>-490</v>
       </c>
       <c r="H25">
-        <v>330</v>
+        <v>-448</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J25" s="6">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2458,24 +2529,24 @@
         <v>10</v>
       </c>
       <c r="G26">
-        <v>360</v>
+        <v>570</v>
       </c>
       <c r="H26">
-        <v>360</v>
+        <v>570</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J26" s="6">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>1113</v>
+        <v>1120</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2487,24 +2558,24 @@
         <v>10</v>
       </c>
       <c r="G27">
-        <v>390</v>
+        <v>-1132</v>
       </c>
       <c r="H27">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J27" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1114</v>
+        <v>1121</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2516,24 +2587,24 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>420</v>
+        <v>-275</v>
       </c>
       <c r="H28">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J28" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>1115</v>
+        <v>1122</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2545,24 +2616,24 @@
         <v>10</v>
       </c>
       <c r="G29">
-        <v>450</v>
+        <v>660</v>
       </c>
       <c r="H29">
-        <v>450</v>
+        <v>660</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J29" s="6">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>1116</v>
-      </c>
-      <c r="B30" t="s">
-        <v>78</v>
+        <v>1123</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2574,24 +2645,24 @@
         <v>10</v>
       </c>
       <c r="G30">
-        <v>480</v>
+        <v>-1651</v>
       </c>
       <c r="H30">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J30" s="6">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2603,24 +2674,24 @@
         <v>10</v>
       </c>
       <c r="G31">
-        <v>510</v>
+        <v>720</v>
       </c>
       <c r="H31">
-        <v>510</v>
+        <v>720</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J31" s="6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2632,24 +2703,24 @@
         <v>10</v>
       </c>
       <c r="G32">
-        <v>540</v>
+        <v>750</v>
       </c>
       <c r="H32">
-        <v>540</v>
+        <v>750</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J32" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>1119</v>
+        <v>1126</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2661,24 +2732,24 @@
         <v>10</v>
       </c>
       <c r="G33">
-        <v>570</v>
+        <v>-413</v>
       </c>
       <c r="H33">
-        <v>570</v>
+        <v>223</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J33" s="6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2690,24 +2761,24 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>600</v>
+        <v>1181</v>
       </c>
       <c r="H34">
-        <v>600</v>
+        <v>368</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J34" s="6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2719,24 +2790,24 @@
         <v>10</v>
       </c>
       <c r="G35">
-        <v>630</v>
+        <v>-160</v>
       </c>
       <c r="H35">
-        <v>630</v>
+        <v>-538</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J35" s="6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2748,24 +2819,24 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>660</v>
+        <v>329</v>
       </c>
       <c r="H36">
-        <v>660</v>
+        <v>-522</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J36" s="6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>1123</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>1130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2777,24 +2848,24 @@
         <v>10</v>
       </c>
       <c r="G37">
-        <v>690</v>
+        <v>1595</v>
       </c>
       <c r="H37">
-        <v>690</v>
+        <v>351</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J37" s="6">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2806,24 +2877,24 @@
         <v>10</v>
       </c>
       <c r="G38">
-        <v>720</v>
+        <v>1703</v>
       </c>
       <c r="H38">
-        <v>720</v>
+        <v>-164</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J38" s="6">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2835,24 +2906,24 @@
         <v>10</v>
       </c>
       <c r="G39">
-        <v>750</v>
+        <v>1667</v>
       </c>
       <c r="H39">
-        <v>750</v>
+        <v>-397</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J39" s="6">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2864,24 +2935,24 @@
         <v>10</v>
       </c>
       <c r="G40">
-        <v>780</v>
+        <v>1065</v>
       </c>
       <c r="H40">
-        <v>780</v>
+        <v>-458</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J40" s="6">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2893,219 +2964,603 @@
         <v>10</v>
       </c>
       <c r="G41">
-        <v>810</v>
+        <v>1020</v>
       </c>
       <c r="H41">
-        <v>810</v>
+        <v>1020</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J41" s="6">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1128</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>2000</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42">
-        <v>840</v>
-      </c>
-      <c r="H42">
-        <v>840</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="6">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1129</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>870</v>
+        <v>20</v>
       </c>
       <c r="H43">
-        <v>870</v>
+        <v>20</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="6">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1130</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>1202</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F44">
         <v>10</v>
       </c>
       <c r="G44">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="H44">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="6">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1131</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
+        <v>45</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>1203</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F45">
         <v>10</v>
       </c>
       <c r="G45">
-        <v>930</v>
+        <v>140</v>
       </c>
       <c r="H45">
-        <v>930</v>
+        <v>140</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J45" s="6">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
+        <v>45</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
+        <v>2004</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>200</v>
+      </c>
+      <c r="H46">
+        <v>200</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>1205</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2005</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>260</v>
+      </c>
+      <c r="H47">
+        <v>260</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>1206</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2006</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>1207</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2006</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>1208</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2006</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>1209</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2006</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>60</v>
+      </c>
+      <c r="H51">
+        <v>60</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>1210</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2006</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>80</v>
+      </c>
+      <c r="H52">
+        <v>80</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>2006</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>1212</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2006</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>120</v>
+      </c>
+      <c r="H54">
+        <v>120</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>1213</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2006</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>140</v>
+      </c>
+      <c r="H55">
+        <v>140</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2006</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>160</v>
+      </c>
+      <c r="H56">
+        <v>160</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1501</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
         <v>2000</v>
       </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46">
-        <v>960</v>
-      </c>
-      <c r="H46">
-        <v>960</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="6">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1133</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>2000</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
-      </c>
-      <c r="G47">
-        <v>990</v>
-      </c>
-      <c r="H47">
-        <v>990</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J47" s="6">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1134</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>2000</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
-      <c r="G48">
-        <v>1020</v>
-      </c>
-      <c r="H48">
-        <v>1020</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J48" s="6">
-        <v>2034</v>
+      <c r="F77">
+        <v>20</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>200</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>1901</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>2007</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>1902</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>2008</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>200</v>
+      </c>
+      <c r="H80">
+        <v>200</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
